--- a/biology/Virologie/Cuevavirus/Cuevavirus.xlsx
+++ b/biology/Virologie/Cuevavirus/Cuevavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Cuevavirus est un genre de filovirus proposé pour héberger le virus du Lloviu, découvert en 2002 dans la Cueva del Lloviu à Villaviciosa dans les Asturies, en Espagne, chez Miniopterus schreibersii[2], une chauve-souris commune dans certaines régions d'Afrique à l'Australie en passant par l'Europe et l'Asie. Ce genre est monotypique en 2022.
-Un filovirus appartient au genre Cuevavirus si[3] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Cuevavirus est un genre de filovirus proposé pour héberger le virus du Lloviu, découvert en 2002 dans la Cueva del Lloviu à Villaviciosa dans les Asturies, en Espagne, chez Miniopterus schreibersii, une chauve-souris commune dans certaines régions d'Afrique à l'Australie en passant par l'Europe et l'Asie. Ce genre est monotypique en 2022.
+Un filovirus appartient au genre Cuevavirus si :
 il est endémique en Espagne et, probablement, en Europe méridionale (y compris le sud de la France) ;
 son quatrième gène (GP) code quatre protéines :
 les glycoprotéines GP1,2 et ssGP exprimées par édition cotranscriptionnelle ;
